--- a/mosip_master/xlsx/loc_hierarchy_list.xlsx
+++ b/mosip_master/xlsx/loc_hierarchy_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Belize\IJ-CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579A6D1F-8B19-4E3D-9DF7-FAB6634E8195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B487BD1-221E-424F-B9A7-257B52F53BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="23040" windowHeight="12240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
       <b/>
       <sz val="11"/>
       <name val="Cambria"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -449,7 +449,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
